--- a/data_7.xlsx
+++ b/data_7.xlsx
@@ -109,16 +109,16 @@
         <v>5</v>
       </c>
       <c r="B2" t="n">
-        <v>4.355269123963418</v>
+        <v>4.349056517172794</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1155213136691797</v>
+        <v>0.11777500805381487</v>
       </c>
       <c r="D2" t="n">
-        <v>4.884634564897104</v>
+        <v>4.9325150945727465</v>
       </c>
       <c r="E2" t="n">
-        <v>0.19104773084585328</v>
+        <v>0.19301351738820682</v>
       </c>
       <c r="F2" t="n">
         <v>0.04986714913004833</v>
@@ -132,7 +132,7 @@
         <v>6.834366949655234</v>
       </c>
       <c r="C3" t="n">
-        <v>0.25528076989649917</v>
+        <v>0.25463030217295485</v>
       </c>
       <c r="D3" t="n">
         <v>8.661253476110561</v>
@@ -152,7 +152,7 @@
         <v>7.1850411934286305</v>
       </c>
       <c r="C4" t="n">
-        <v>0.6291979164343211</v>
+        <v>0.6275946897732303</v>
       </c>
       <c r="D4" t="n">
         <v>10.08636559358523</v>
